--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="balloon" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +21,27 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,27 +369,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>